--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam23-Itga4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam23-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.157317599593801</v>
+        <v>0.1790343333333333</v>
       </c>
       <c r="H2">
-        <v>0.157317599593801</v>
+        <v>0.537103</v>
       </c>
       <c r="I2">
-        <v>0.004893467376962752</v>
+        <v>0.00485560647444994</v>
       </c>
       <c r="J2">
-        <v>0.004893467376962752</v>
+        <v>0.00522711558998419</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>47.174012646515</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N2">
-        <v>47.174012646515</v>
+        <v>1.104247</v>
       </c>
       <c r="O2">
-        <v>0.4188986365712714</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P2">
-        <v>0.4188986365712714</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q2">
-        <v>7.421302432757352</v>
+        <v>0.06589937516011111</v>
       </c>
       <c r="R2">
-        <v>7.421302432757352</v>
+        <v>0.5930943764409999</v>
       </c>
       <c r="S2">
-        <v>0.002049866812315693</v>
+        <v>1.33719335451281E-05</v>
       </c>
       <c r="T2">
-        <v>0.002049866812315693</v>
+        <v>1.450662435801924E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.157317599593801</v>
+        <v>0.1790343333333333</v>
       </c>
       <c r="H3">
-        <v>0.157317599593801</v>
+        <v>0.537103</v>
       </c>
       <c r="I3">
-        <v>0.004893467376962752</v>
+        <v>0.00485560647444994</v>
       </c>
       <c r="J3">
-        <v>0.004893467376962752</v>
+        <v>0.00522711558998419</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4380552209324</v>
+        <v>67.415553</v>
       </c>
       <c r="N3">
-        <v>62.4380552209324</v>
+        <v>202.246659</v>
       </c>
       <c r="O3">
-        <v>0.5544412004591804</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P3">
-        <v>0.5544412004591804</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q3">
-        <v>9.82260497066228</v>
+        <v>12.069698587653</v>
       </c>
       <c r="R3">
-        <v>9.82260497066228</v>
+        <v>108.627287288877</v>
       </c>
       <c r="S3">
-        <v>0.002713139926891065</v>
+        <v>0.002449115898772815</v>
       </c>
       <c r="T3">
-        <v>0.002713139926891065</v>
+        <v>0.002656938447446459</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.157317599593801</v>
+        <v>0.1790343333333333</v>
       </c>
       <c r="H4">
-        <v>0.157317599593801</v>
+        <v>0.537103</v>
       </c>
       <c r="I4">
-        <v>0.004893467376962752</v>
+        <v>0.00485560647444994</v>
       </c>
       <c r="J4">
-        <v>0.004893467376962752</v>
+        <v>0.00522711558998419</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.0023178766533</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N4">
-        <v>3.0023178766533</v>
+        <v>188.369503</v>
       </c>
       <c r="O4">
-        <v>0.02666016296954829</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P4">
-        <v>0.02666016296954829</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q4">
-        <v>0.4723174415726547</v>
+        <v>11.24153612997878</v>
       </c>
       <c r="R4">
-        <v>0.4723174415726547</v>
+        <v>101.173825169809</v>
       </c>
       <c r="S4">
-        <v>0.000130460637755995</v>
+        <v>0.002281069793302412</v>
       </c>
       <c r="T4">
-        <v>0.000130460637755995</v>
+        <v>0.002474632596264946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.1302083663981</v>
+        <v>0.1790343333333333</v>
       </c>
       <c r="H5">
-        <v>24.1302083663981</v>
+        <v>0.537103</v>
       </c>
       <c r="I5">
-        <v>0.75058599765805</v>
+        <v>0.00485560647444994</v>
       </c>
       <c r="J5">
-        <v>0.75058599765805</v>
+        <v>0.00522711558998419</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.174012646515</v>
+        <v>3.084311</v>
       </c>
       <c r="N5">
-        <v>47.174012646515</v>
+        <v>6.168622</v>
       </c>
       <c r="O5">
-        <v>0.4188986365712714</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P5">
-        <v>0.4188986365712714</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q5">
-        <v>1138.318754639506</v>
+        <v>0.5521975636776666</v>
       </c>
       <c r="R5">
-        <v>1138.318754639506</v>
+        <v>3.313185382066</v>
       </c>
       <c r="S5">
-        <v>0.3144194510484447</v>
+        <v>0.000112048848829585</v>
       </c>
       <c r="T5">
-        <v>0.3144194510484447</v>
+        <v>8.103792191476486E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.1302083663981</v>
+        <v>28.61718033333333</v>
       </c>
       <c r="H6">
-        <v>24.1302083663981</v>
+        <v>85.851541</v>
       </c>
       <c r="I6">
-        <v>0.75058599765805</v>
+        <v>0.7761291564580808</v>
       </c>
       <c r="J6">
-        <v>0.75058599765805</v>
+        <v>0.8355118634326505</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>62.4380552209324</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N6">
-        <v>62.4380552209324</v>
+        <v>1.104247</v>
       </c>
       <c r="O6">
-        <v>0.5544412004591804</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P6">
-        <v>0.5544412004591804</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q6">
-        <v>1506.64328247377</v>
+        <v>10.53347851051411</v>
       </c>
       <c r="R6">
-        <v>1506.64328247377</v>
+        <v>94.80130659462699</v>
       </c>
       <c r="S6">
-        <v>0.4161558015893809</v>
+        <v>0.002137394691518834</v>
       </c>
       <c r="T6">
-        <v>0.4161558015893809</v>
+        <v>0.002318765778340629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.1302083663981</v>
+        <v>28.61718033333333</v>
       </c>
       <c r="H7">
-        <v>24.1302083663981</v>
+        <v>85.851541</v>
       </c>
       <c r="I7">
-        <v>0.75058599765805</v>
+        <v>0.7761291564580808</v>
       </c>
       <c r="J7">
-        <v>0.75058599765805</v>
+        <v>0.8355118634326505</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.0023178766533</v>
+        <v>67.415553</v>
       </c>
       <c r="N7">
-        <v>3.0023178766533</v>
+        <v>202.246659</v>
       </c>
       <c r="O7">
-        <v>0.02666016296954829</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P7">
-        <v>0.02666016296954829</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q7">
-        <v>72.44655594580604</v>
+        <v>1929.243037472391</v>
       </c>
       <c r="R7">
-        <v>72.44655594580604</v>
+        <v>17363.18733725152</v>
       </c>
       <c r="S7">
-        <v>0.0200107450202246</v>
+        <v>0.3914712336316241</v>
       </c>
       <c r="T7">
-        <v>0.0200107450202246</v>
+        <v>0.424689975768942</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.86096660073365</v>
+        <v>28.61718033333333</v>
       </c>
       <c r="H8">
-        <v>7.86096660073365</v>
+        <v>85.851541</v>
       </c>
       <c r="I8">
-        <v>0.2445205349649873</v>
+        <v>0.7761291564580808</v>
       </c>
       <c r="J8">
-        <v>0.2445205349649873</v>
+        <v>0.8355118634326505</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.174012646515</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N8">
-        <v>47.174012646515</v>
+        <v>188.369503</v>
       </c>
       <c r="O8">
-        <v>0.4188986365712714</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P8">
-        <v>0.4188986365712714</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q8">
-        <v>370.8333378368412</v>
+        <v>1796.868012217125</v>
       </c>
       <c r="R8">
-        <v>370.8333378368412</v>
+        <v>16171.81210995412</v>
       </c>
       <c r="S8">
-        <v>0.1024293187105111</v>
+        <v>0.3646104320466718</v>
       </c>
       <c r="T8">
-        <v>0.1024293187105111</v>
+        <v>0.3955498699470613</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.86096660073365</v>
+        <v>28.61718033333333</v>
       </c>
       <c r="H9">
-        <v>7.86096660073365</v>
+        <v>85.851541</v>
       </c>
       <c r="I9">
-        <v>0.2445205349649873</v>
+        <v>0.7761291564580808</v>
       </c>
       <c r="J9">
-        <v>0.2445205349649873</v>
+        <v>0.8355118634326505</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.4380552209324</v>
+        <v>3.084311</v>
       </c>
       <c r="N9">
-        <v>62.4380552209324</v>
+        <v>6.168622</v>
       </c>
       <c r="O9">
-        <v>0.5544412004591804</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P9">
-        <v>0.5544412004591804</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q9">
-        <v>490.8234667065129</v>
+        <v>88.26428409108367</v>
       </c>
       <c r="R9">
-        <v>490.8234667065129</v>
+        <v>529.585704546502</v>
       </c>
       <c r="S9">
-        <v>0.1355722589429086</v>
+        <v>0.01791009608826598</v>
       </c>
       <c r="T9">
-        <v>0.1355722589429086</v>
+        <v>0.0129532519383065</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.184753</v>
+      </c>
+      <c r="H10">
+        <v>0.5542590000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.005010702954409397</v>
+      </c>
+      <c r="J10">
+        <v>0.005394078714490606</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.104247</v>
+      </c>
+      <c r="O10">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P10">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q10">
+        <v>0.06800431533033334</v>
+      </c>
+      <c r="R10">
+        <v>0.6120388379730001</v>
+      </c>
+      <c r="S10">
+        <v>1.379905626069703E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.496999106326233E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.184753</v>
+      </c>
+      <c r="H11">
+        <v>0.5542590000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.005010702954409397</v>
+      </c>
+      <c r="J11">
+        <v>0.005394078714490606</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>67.415553</v>
+      </c>
+      <c r="N11">
+        <v>202.246659</v>
+      </c>
+      <c r="O11">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P11">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q11">
+        <v>12.455225663409</v>
+      </c>
+      <c r="R11">
+        <v>112.097030970681</v>
+      </c>
+      <c r="S11">
+        <v>0.002527344902072641</v>
+      </c>
+      <c r="T11">
+        <v>0.002741805662867695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.184753</v>
+      </c>
+      <c r="H12">
+        <v>0.5542590000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.005010702954409397</v>
+      </c>
+      <c r="J12">
+        <v>0.005394078714490606</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N12">
+        <v>188.369503</v>
+      </c>
+      <c r="O12">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P12">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q12">
+        <v>11.60061026258634</v>
+      </c>
+      <c r="R12">
+        <v>104.405492363277</v>
+      </c>
+      <c r="S12">
+        <v>0.002353931112963439</v>
+      </c>
+      <c r="T12">
+        <v>0.002553676647073677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.184753</v>
+      </c>
+      <c r="H13">
+        <v>0.5542590000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.005010702954409397</v>
+      </c>
+      <c r="J13">
+        <v>0.005394078714490606</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.084311</v>
+      </c>
+      <c r="N13">
+        <v>6.168622</v>
+      </c>
+      <c r="O13">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P13">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q13">
+        <v>0.5698357101830001</v>
+      </c>
+      <c r="R13">
+        <v>3.419014261098</v>
+      </c>
+      <c r="S13">
+        <v>0.000115627883112619</v>
+      </c>
+      <c r="T13">
+        <v>8.362641348597134E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.02891466666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.086744</v>
+      </c>
+      <c r="I14">
+        <v>0.0007841973104221829</v>
+      </c>
+      <c r="J14">
+        <v>0.0008441973229298452</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.104247</v>
+      </c>
+      <c r="O14">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P14">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q14">
+        <v>0.01064297797422222</v>
+      </c>
+      <c r="R14">
+        <v>0.095786801768</v>
+      </c>
+      <c r="S14">
+        <v>2.15961371178078E-06</v>
+      </c>
+      <c r="T14">
+        <v>2.342870219142363E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>7.86096660073365</v>
-      </c>
-      <c r="H10">
-        <v>7.86096660073365</v>
-      </c>
-      <c r="I10">
-        <v>0.2445205349649873</v>
-      </c>
-      <c r="J10">
-        <v>0.2445205349649873</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="N10">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="O10">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="P10">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="Q10">
-        <v>23.60112055315716</v>
-      </c>
-      <c r="R10">
-        <v>23.60112055315716</v>
-      </c>
-      <c r="S10">
-        <v>0.006518957311567693</v>
-      </c>
-      <c r="T10">
-        <v>0.006518957311567693</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.02891466666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.086744</v>
+      </c>
+      <c r="I15">
+        <v>0.0007841973104221829</v>
+      </c>
+      <c r="J15">
+        <v>0.0008441973229298452</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>67.415553</v>
+      </c>
+      <c r="N15">
+        <v>202.246659</v>
+      </c>
+      <c r="O15">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P15">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q15">
+        <v>1.949298243144</v>
+      </c>
+      <c r="R15">
+        <v>17.543684188296</v>
+      </c>
+      <c r="S15">
+        <v>0.0003955407240755481</v>
+      </c>
+      <c r="T15">
+        <v>0.0004291047875087193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.02891466666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.086744</v>
+      </c>
+      <c r="I16">
+        <v>0.0007841973104221829</v>
+      </c>
+      <c r="J16">
+        <v>0.0008441973229298452</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N16">
+        <v>188.369503</v>
+      </c>
+      <c r="O16">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P16">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q16">
+        <v>1.815547129803556</v>
+      </c>
+      <c r="R16">
+        <v>16.339924168232</v>
+      </c>
+      <c r="S16">
+        <v>0.0003684006943737504</v>
+      </c>
+      <c r="T16">
+        <v>0.0003996617593467296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.02891466666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.086744</v>
+      </c>
+      <c r="I17">
+        <v>0.0007841973104221829</v>
+      </c>
+      <c r="J17">
+        <v>0.0008441973229298452</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.084311</v>
+      </c>
+      <c r="N17">
+        <v>6.168622</v>
+      </c>
+      <c r="O17">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P17">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q17">
+        <v>0.08918182446133334</v>
+      </c>
+      <c r="R17">
+        <v>0.5350909467680001</v>
+      </c>
+      <c r="S17">
+        <v>1.80962782611036E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.308790585525377E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.8617905</v>
+      </c>
+      <c r="H18">
+        <v>15.723581</v>
+      </c>
+      <c r="I18">
+        <v>0.2132203368026377</v>
+      </c>
+      <c r="J18">
+        <v>0.1530227449399449</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.104247</v>
+      </c>
+      <c r="O18">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P18">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q18">
+        <v>2.893786191417833</v>
+      </c>
+      <c r="R18">
+        <v>17.362717148507</v>
+      </c>
+      <c r="S18">
+        <v>0.0005871909491013051</v>
+      </c>
+      <c r="T18">
+        <v>0.0004246784753201685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.8617905</v>
+      </c>
+      <c r="H19">
+        <v>15.723581</v>
+      </c>
+      <c r="I19">
+        <v>0.2132203368026377</v>
+      </c>
+      <c r="J19">
+        <v>0.1530227449399449</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>67.415553</v>
+      </c>
+      <c r="N19">
+        <v>202.246659</v>
+      </c>
+      <c r="O19">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P19">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q19">
+        <v>530.0069541276465</v>
+      </c>
+      <c r="R19">
+        <v>3180.041724765879</v>
+      </c>
+      <c r="S19">
+        <v>0.107546054144388</v>
+      </c>
+      <c r="T19">
+        <v>0.07778133224062916</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.8617905</v>
+      </c>
+      <c r="H20">
+        <v>15.723581</v>
+      </c>
+      <c r="I20">
+        <v>0.2132203368026377</v>
+      </c>
+      <c r="J20">
+        <v>0.1530227449399449</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N20">
+        <v>188.369503</v>
+      </c>
+      <c r="O20">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P20">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q20">
+        <v>493.6405230583738</v>
+      </c>
+      <c r="R20">
+        <v>2961.843138350243</v>
+      </c>
+      <c r="S20">
+        <v>0.1001667808455093</v>
+      </c>
+      <c r="T20">
+        <v>0.07244436555486039</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.8617905</v>
+      </c>
+      <c r="H21">
+        <v>15.723581</v>
+      </c>
+      <c r="I21">
+        <v>0.2132203368026377</v>
+      </c>
+      <c r="J21">
+        <v>0.1530227449399449</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.084311</v>
+      </c>
+      <c r="N21">
+        <v>6.168622</v>
+      </c>
+      <c r="O21">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P21">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q21">
+        <v>24.2482069188455</v>
+      </c>
+      <c r="R21">
+        <v>96.992827675382</v>
+      </c>
+      <c r="S21">
+        <v>0.00492031086363901</v>
+      </c>
+      <c r="T21">
+        <v>0.00237236866913512</v>
       </c>
     </row>
   </sheetData>
